--- a/grade-workbook-102.xlsx
+++ b/grade-workbook-102.xlsx
@@ -356,52 +356,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,667 +662,667 @@
   <dimension ref="A1:BI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="AF2" s="0" t="n">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="AF2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="AH2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI2" s="0" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <f aca="false">SUM(B13:L13)/SUM(B12:L12)*100</f>
-        <v>95.2</v>
-      </c>
-      <c r="D3" s="7" t="n">
+        <v>98.5401459854015</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <f aca="false">C3*0.1</f>
-        <v>9.52</v>
-      </c>
-      <c r="G3" s="0" t="s">
+        <v>9.85401459854015</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="0" t="s">
+      <c r="AF3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3" s="1" t="n">
         <v>97.59</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3" s="1" t="n">
         <v>97.59</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3" s="1" t="n">
         <v>68.42</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3" s="1" t="n">
         <v>68.42</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="AP3" s="1" t="n">
         <v>57.14</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>57.14</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="AR3" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AS3" s="0" t="n">
+      <c r="AS3" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="AT3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="AU3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="AV3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="AW3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="AZ3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="BA3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="BE3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BF3" s="1" t="n">
         <v>61.72</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3" s="1" t="n">
         <v>61.72</v>
       </c>
-      <c r="BH3" s="0" t="n">
+      <c r="BH3" s="1" t="n">
         <v>31.54</v>
       </c>
-      <c r="BI3" s="0" t="n">
+      <c r="BI3" s="1" t="n">
         <v>31.54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <f aca="false">(SUM(B17:M17)-SMALL(B17:M17,1)-SMALL(B17:M17,2)-SMALL(B17:M17,3))/(SUM(B16:M16)-30)*100</f>
-        <v>77.7777777777778</v>
-      </c>
-      <c r="D4" s="7" t="n">
+        <v>97.7777777777778</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <f aca="false">C4*0.4</f>
-        <v>31.1111111111111</v>
+        <v>39.1111111111111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <f aca="false">B20/B19*100</f>
-        <v>75</v>
-      </c>
-      <c r="D5" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <f aca="false">IF(C5&lt;C7, 0.15*C7, 0.15*C5)</f>
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <f aca="false">B23/B22*100</f>
-        <v>95</v>
-      </c>
-      <c r="D6" s="7" t="n">
+        <v>95.68</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <f aca="false">C6*0.2</f>
-        <v>19</v>
+        <v>19.136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <f aca="false">B26/B25*100</f>
         <v>70</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <f aca="false">C7*0.15</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="n">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="n">
         <f aca="false">SUM(D3:D7)</f>
-        <v>81.3811111111111</v>
-      </c>
-      <c r="E8" s="0" t="s">
+        <v>89.1011257096513</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="F13" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>270</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>95.68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B25" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="5" t="n">
         <v>14</v>
       </c>
     </row>
